--- a/note2/코드정의서.xlsx
+++ b/note2/코드정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\datastudy\teamproject3\note2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3789F7-9365-4138-86B9-3306F4B54A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ECD9B7-3DFA-4DCA-B211-422D719B18EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>모듈 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>head title 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;link href="{% static 'css/bootstrap.css' %}" rel="stylesheet" /&gt;
 &lt;script src="{% static 'js/jquery-1.10.2.js' %}"&gt;&lt;/script&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,19 +219,6 @@
   </si>
   <si>
     <t>토클 디자인 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;ul class="nav" id="main-menu"&gt;
-    &lt;li&gt;
-		    &lt;a href="#" class="waves-effect waves-dark"&gt;&lt;i class="fas fa-map-marked-alt"&gt;&lt;/i&gt; 수소충전소 추천입지&lt;/a&gt;
-    &lt;/li&gt;
-			&lt;ul class="nav nav-second-level"&gt;
-            &lt;li&gt;
-                &lt;a href="index.html" class="active-menu waves-effect waves-dark"&gt;&lt;i class="fas fa-gas-pump"&gt;&lt;/i&gt; 추천입지&lt;/a&gt;
-            &lt;/li&gt;
-			&lt;/ul&gt;
-&lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -291,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table.html 제외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>table.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,12 +287,134 @@
 		       &lt;/p&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>form.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.html
+(form.html,
+table.html 제외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="{% static 'img/home.png' %}" alt="My Image" style="display: block; margin: 0 auto;"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대문 이미지 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. style="... padding: 0px 0px 10px 0px;"
+내용과 테두리 사이의 간격인 패딩 영역의 크기를 설정
+2. &lt;a href={{news.url.0}} … &gt;
+hypertext reference에 news 테이블에서 url열의 첫번째 자료를 선택
+4. target="_blank"
+새로운 창에서 정보 뜨기
+5. &lt;font size="4"&gt;
+글자크기 4로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.html
+(form.html 제외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바 head title 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 별 header 이름설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="header"&gt; 
+                        &lt;h1 class="page-header" style="line-height :2"&gt;
+                            &amp;emsp;수소충전소 추천입지
+                        &lt;/h1&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>views.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project&gt;views.py 에 있는 함수와 url사이트명 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from django.shortcuts import render
+import requests
+from bs4 import BeautifulSoup
+import pandas as pd
+def news(request):
+    response = requests.get('https://search.naver.com/search.naver?where=news&amp;sm=tab_jum&amp;query=%EC%88%98%EC%86%8C+%EC%B6%A9%EC%A0%84')
+    html = response.text
+    soup = BeautifulSoup(html, 'html.parser')
+    articles = soup.select('#main_pack &gt; section &gt; div &gt; div.group_news &gt; ul &gt; li')
+    title_list = []
+    url_list = []
+    comp_list = []
+    thumbnail_list = []
+    result = pd.DataFrame(columns=['title','url','com','picture'])
+    for article in articles:
+        a_tag1 = article.select_one('.news_tit')
+        title = a_tag1.text
+        title_list.append(title.strip())
+        url = a_tag1['href']
+        url_list.append(url.strip())
+        comp = article.select_one('a.info.press').text
+        comp = comp.replace('언론사 선정', '')
+        comp_list.append(comp.strip())
+        try:
+            thumbnail = article.select_one('div &gt; a &gt; img')['src']
+            thumbnail_list.append(thumbnail.strip())
+        except:
+            thumbnail_list.append(
+            'https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F366%2F2021%2F09%2F23%2F762207.jpg&amp;type=ff264_180&amp;expire=2&amp;refresh=true')
+    info = {'title': title_list, 'url': url_list, 'com': comp_list, 'picture': thumbnail_list}
+    news = pd.DataFrame(info)
+    return render(request, 'project/table.html',{'news' : news})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링 및 함수 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urlpatterns=[
+    path('hydrogencar.html',views.chart),
+    path('profile.html',views.empty),
+    path('home.html',views.form),
+    path('',views.form),
+    path('recommend.html',views.index),
+    path('location.html',views.tab_panel),
+    path('news.html',views.news),
+    path('seoul.html',views.ui_elements),
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul class="nav" id="main-menu"&gt;
+    &lt;li&gt;
+		    &lt;a href="#" class="waves-effect waves-dark"&gt;&lt;i class="fas fa-map-marked-alt"&gt;&lt;/i&gt; 수소충전소 추천입지&lt;/a&gt;
+    &lt;/li&gt;
+			&lt;ul class="nav nav-second-level"&gt;
+            &lt;li&gt;
+                &lt;a href="recommend.html" class="active-menu waves-effect waves-dark"&gt;&lt;i class="fas fa-gas-pump"&gt;&lt;/i&gt; 추천입지&lt;/a&gt;
+            &lt;/li&gt;
+			&lt;/ul&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,16 +445,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -374,15 +488,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -423,27 +528,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -453,41 +552,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,18 +605,78 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4962525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9286875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEF3FFE-5E82-4C78-A76C-766F45C26C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211050" y="466725"/>
+          <a:ext cx="4324350" cy="5133975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3057525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>5057775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5086633</xdr:colOff>
+      <xdr:colOff>7086883</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>334069</xdr:rowOff>
+      <xdr:rowOff>515044</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -539,7 +699,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10001250" y="180975"/>
+          <a:off x="12306300" y="552450"/>
           <a:ext cx="2029108" cy="4972744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -552,15 +712,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5057775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>895350</xdr:rowOff>
+      <xdr:colOff>7077075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7144041</xdr:colOff>
+      <xdr:colOff>9163341</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>448022</xdr:rowOff>
+      <xdr:rowOff>600422</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -583,7 +743,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12001500" y="1943100"/>
+          <a:off x="14325600" y="2286000"/>
           <a:ext cx="2086266" cy="2486372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -591,6 +751,72 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6229349</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7105650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="화살표: 오른쪽 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A13F9E-2F14-4A8F-8E8D-8BADC0A1D2CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13477874" y="2286000"/>
+          <a:ext cx="876301" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -859,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -875,181 +1101,246 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="66">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="82.5">
-      <c r="A3" s="13"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="66">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="82.5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="66">
-      <c r="A6" s="13"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="99">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="47.25" customHeight="1">
-      <c r="B9" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="33" hidden="1" customHeight="1">
-      <c r="C10" s="12"/>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" hidden="1" customHeight="1">
-      <c r="C11" s="12"/>
-      <c r="D11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="181.5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="181.5">
-      <c r="B12" s="2"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="66">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="99">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="99">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="181.5">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="115.5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
+    </row>
+    <row r="17" spans="1:5" ht="165">
+      <c r="A17" s="11"/>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="409.5">
+      <c r="A18" s="11"/>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="D3:D4"/>
@@ -1057,6 +1348,8 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A7:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
